--- a/sonstiges/vorlage_protokoll.xlsx
+++ b/sonstiges/vorlage_protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>bis wann zu realisieren</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Gitlab einbinden</t>
-  </si>
-  <si>
-    <t>2 Wochen</t>
   </si>
   <si>
     <t>UI Anpassen -&gt; Services Gitlab/Node/Datenbanken</t>
@@ -590,7 +587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -645,6 +642,9 @@
       <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="10">
+        <v>43052</v>
+      </c>
       <c r="G2" s="12">
         <v>6</v>
       </c>
@@ -665,6 +665,9 @@
       <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="10">
+        <v>43052</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
@@ -682,6 +685,9 @@
       <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="10">
+        <v>43052</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
@@ -699,6 +705,9 @@
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="10">
+        <v>43052</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
@@ -716,12 +725,12 @@
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>21</v>
+      <c r="E6" s="10">
+        <v>43052</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
